--- a/biology/Mycologie/Helotiales/Helotiales.xlsx
+++ b/biology/Mycologie/Helotiales/Helotiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Helotiales sont un ordre de champignons ascomycètes de la classe des Leotiomycètes au sein de la division Ascomycota[3]. 
-On en découvre encore de nouvelles espèces[4], un genre nouveau (Sageria) y a été intégré en 1975[5].
-Selon une estimation de 2008, cet ordre contient 10 familles groupant 501 genres, et 3 881 espèces[6].
-L’ordre des Helotiales est le plus grand ordre des champignons discomycètes inoperculés. Cet ordre contient notamment le fameux petit champignon du genre Chlorociboria en forme de tasse bleu-vert qui vit sur le chêne[7] (photo ci-contre).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Helotiales sont un ordre de champignons ascomycètes de la classe des Leotiomycètes au sein de la division Ascomycota. 
+On en découvre encore de nouvelles espèces, un genre nouveau (Sageria) y a été intégré en 1975.
+Selon une estimation de 2008, cet ordre contient 10 familles groupant 501 genres, et 3 881 espèces.
+L’ordre des Helotiales est le plus grand ordre des champignons discomycètes inoperculés. Cet ordre contient notamment le fameux petit champignon du genre Chlorociboria en forme de tasse bleu-vert qui vit sur le chêne (photo ci-contre).
 Certaines espèces sont pathogènes pour certaines plantes cultivées (fruits…).
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les espèces de l’ordre des Helotiales ont une apothécie qui chez de nombreuses espèces a une forme de disque ou de coupe, mais pas toujours.
 L'asque est dans ce cas légèrement épaissie, contrairement aux asques d'autres Leotiomycètes.
@@ -548,9 +562,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 juillet 2017)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 juillet 2017) :
 famille des Arachnopezizaceae
 famille des Ascocorticiaceae
 famille des Chaetomellaceae
@@ -570,7 +586,7 @@
 famille des Sclerotiniaceae
 famille des Tympanidaceae
 famille des Vibrisseaceae
-Selon Myconet (2007)[9] :
+Selon Myconet (2007) :
 Bulgariaceae
 Dermateaceae
 Helotiaceae
@@ -583,8 +599,43 @@
 Sclerotiniaceae
 Vibrisseaceae
 Ascocorticiaceae (position incertaine)
-Genres d'Helotiales incertae sedis
-Un nom précédé d'un point d'interrogation indique un genre au placement incertain parmi les Heliotales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helotiales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helotiales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres d'Helotiales incertae sedis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nom précédé d'un point d'interrogation indique un genre au placement incertain parmi les Heliotales.
 Adelodiscus —
 ?Algincola —
 Ambrodiscus —
@@ -681,31 +732,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Helotiales</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helotiales</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces sont pathogènes.
 			Maladie des taches noires du rosier
